--- a/Unity Package List.xlsx
+++ b/Unity Package List.xlsx
@@ -64,9 +64,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>LAN_ISO_PACK</t>
-  </si>
-  <si>
     <t>Package Description</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Project for LAN_ISO_PACK</t>
+  </si>
+  <si>
+    <t>Package_0001</t>
   </si>
 </sst>
 </file>
@@ -151,13 +151,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Project Name" dataDxfId="5"/>
-    <tableColumn id="4" name="Project Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Package" dataDxfId="3"/>
-    <tableColumn id="2" name="Package Description" dataDxfId="2"/>
+    <tableColumn id="1" name="Project Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Project Description" dataDxfId="2"/>
+    <tableColumn id="3" name="Package" dataDxfId="1"/>
+    <tableColumn id="2" name="Package Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/Unity Package List.xlsx
+++ b/Unity Package List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Project Name</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Package_0001</t>
+  </si>
+  <si>
+    <t>Unity Package Name</t>
+  </si>
+  <si>
+    <t>LAN_ISO_PACK</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -151,13 +160,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D10"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Project Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Project Description" dataDxfId="2"/>
-    <tableColumn id="3" name="Package" dataDxfId="1"/>
-    <tableColumn id="2" name="Package Description" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Project Name" dataDxfId="4"/>
+    <tableColumn id="4" name="Project Description" dataDxfId="3"/>
+    <tableColumn id="3" name="Package" dataDxfId="2"/>
+    <tableColumn id="5" name="Unity Package Name" dataDxfId="0"/>
+    <tableColumn id="2" name="Package Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +471,11 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,10 +486,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,11 +502,12 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,11 +517,12 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,10 +533,13 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,11 +547,12 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,11 +560,12 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -552,11 +573,12 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,11 +586,12 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,11 +599,12 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -588,7 +612,8 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
